--- a/biology/Zoologie/Calamaria_septentrionalis/Calamaria_septentrionalis.xlsx
+++ b/biology/Zoologie/Calamaria_septentrionalis/Calamaria_septentrionalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calamaria septentrionalis  est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calamaria septentrionalis  est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en République populaire de Chine et au Viêt Nam[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en République populaire de Chine et au Viêt Nam.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Calamaria septentrionalis[2] mesure environ 45 cm.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Calamaria septentrionalis mesure environ 45 cm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Boulenger, 1890 : List of the reptiles, batrachians, and freshwater fishes collected by Professor Moesch and Mr. Iversein in the district of Deli, Sumatra. Proceedings of the Zoological Society of London, vol. 1890, p. 31-40 (texte intégral).</t>
         </is>
